--- a/Final_Result.xlsx
+++ b/Final_Result.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E14"/>
+  <dimension ref="A1:E64"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -463,22 +463,22 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>http://www.triderma.com</t>
+          <t>http://www.amkinggroup.com</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -490,17 +490,17 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>http://www.truelark.com</t>
+          <t>http://www.alafairbiosciences.com</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -517,17 +517,17 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>http://www.tryndbuy.com</t>
+          <t>http://www.alltechllc.com</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -544,7 +544,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>http://www.usjaclean.com</t>
+          <t>http://www.alturaengineering.com</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -554,7 +554,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -571,17 +571,17 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>http://www.ultramedicals.com</t>
+          <t>http://www.amarilloedc.com</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -598,12 +598,12 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>http://www.upkeepbeauty.com</t>
+          <t>http://www.herbalgram.org</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -625,17 +625,17 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>http://www.uprisemgmt.com</t>
+          <t>http://www.atlanticblowers.com</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -652,7 +652,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>http://www.vacation.inc</t>
+          <t>http://www.bioenergydevco.com</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -667,7 +667,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -679,7 +679,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>http://www.vanillafromtahiti.com</t>
+          <t>http://www.blogilates.com</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -694,7 +694,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -706,7 +706,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>http://www.visitandcare.com</t>
+          <t>http://www.boxerretail.com</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -716,12 +716,12 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -733,7 +733,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>http://www.walnutcreekdental.net</t>
+          <t>http://www.cantupestcontrol.com</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -743,7 +743,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -760,7 +760,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>http://www.waxelene.com</t>
+          <t>http://www.cocoatown.com</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -770,12 +770,12 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -787,25 +787,1375 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>http://www.wesave.com</t>
+          <t>http://www.coniferre.com</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>http://www.connexfm.com</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>http://www.coolerx.com</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>http://www.db2re.com</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>http://www.getduckbill.com</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>http://www.ecomarketingsolutions.com</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>http://www.epoxydesign.com</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>http://www.friscofamilyservices.org</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>http://www.ftssol.com</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>http://www.fulcrumsa.com</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>http://www.grocerytv.com</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>http://www.heavenlycaregivers.com</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>http://www.mini-mart.com</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>http://www.holdenbags.com</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>http://www.eatinnovasian.com</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>http://www.jubileecenter.org</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>http://www.kitchenpride.com</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>http://www.legionathletics.com</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>http://www.mcifoods.com</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>http://www.moleaer.com</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>http://www.natran.com</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>http://www.naturalepicurean.com</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>http://www.natural-habitats.com</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>http://www.nighthawkfoods.com</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>http://www.seniormeals.org</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>http://www.odysseyrf.com</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>http://www.pacificfarms.com</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>http://www.passionatepennypincher.com</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>http://www.pegasusfoodsinc.com</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>http://www.personaltrainerfood.com</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>http://www.phoeniciafoods.com</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>http://www.pipedreamlabs.co</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>http://www.plainsdairy.com</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>http://www.proplasticsinc.com</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>http://www.psiurethanes.com</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>http://www.rheom.com</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>http://www.rockwalledc.com</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>http://www.roland-realty.com</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>http://www.specialtyfoodpartners.com</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>http://www.simberobotics.com</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>http://www.solais.com</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>http://www.specialtypackaging.net</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>http://www.spiriti.com</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>http://www.starbrokerage.com</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>http://www.sundanceconstructioncompany.com</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>http://www.texas-wholesale.com</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>http://www.fricksco.com</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>http://www.rainiercompanies.com</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>http://www.thesurvivalpodcast.com</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>http://www.valleycold.com</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>http://www.versacor.com</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>
